--- a/ExcelFiles/VideoData.xlsx
+++ b/ExcelFiles/VideoData.xlsx
@@ -6,13 +6,207 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Nice" r:id="rId3" sheetId="1"/>
+    <sheet name="Default" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Author Name</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>They broke Harry with the mac&amp;cheese then buried him with the English breakfast 😂😂😂</t>
+  </si>
+  <si>
+    <t>purple dragonfly</t>
+  </si>
+  <si>
+    <t>Simon is the type of person responsible for the UK being shamed for their cuisine</t>
+  </si>
+  <si>
+    <t>Jare nOne Cares</t>
+  </si>
+  <si>
+    <t>Talia has it easy cooking for Simon 😂</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>harry got me tearing bro, man’s comedy. “sloppy nachos” he’s got a valid argument</t>
+  </si>
+  <si>
+    <t>Nadal</t>
+  </si>
+  <si>
+    <t>Harry - “it’s so versatile a sandwich” 
+Josh 2 seconds later - “it’s so versatile a sandwich”</t>
+  </si>
+  <si>
+    <t>OllieDavies</t>
+  </si>
+  <si>
+    <t>All this has shown me is that Simon eats like a toddler 😂</t>
+  </si>
+  <si>
+    <t>OldSalty</t>
+  </si>
+  <si>
+    <t>Why isn't behz here
+Food videos are his turf
+He'd single handedly convince the others to agree to his opinion as long at it's about food 🤣</t>
+  </si>
+  <si>
+    <t>Afzal</t>
+  </si>
+  <si>
+    <t>Simon seems like the type of lad who likes white bread with a glass of water on the side for dipping</t>
+  </si>
+  <si>
+    <t>Skreamie</t>
+  </si>
+  <si>
+    <t>Simon practicing drooling over mac &amp; cheese had me creasing 😂😭</t>
+  </si>
+  <si>
+    <t>ThatsmeWoahh</t>
+  </si>
+  <si>
+    <t>If they rated sauces Simon somehow would back ketchup to win the whole thing 😂</t>
+  </si>
+  <si>
+    <t>polazex</t>
+  </si>
+  <si>
+    <t>Sidemen always never disappoints there content 😂😂🎉🎉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazemaxx </t>
+  </si>
+  <si>
+    <t>I hope they do this again with behz and jj 😂</t>
+  </si>
+  <si>
+    <t>Zeshaan Mahmood</t>
+  </si>
+  <si>
+    <t>Harry was absolutely right about everything. Also please do this again with 32 different foods.</t>
+  </si>
+  <si>
+    <t>chuck stevens</t>
+  </si>
+  <si>
+    <t>That is a classic Mexican taco that is as good as it gets</t>
+  </si>
+  <si>
+    <t>TonyAntrx</t>
+  </si>
+  <si>
+    <t>To each their own with food prefs, but Simon has the whackest food prefrences in the group LOL</t>
+  </si>
+  <si>
+    <t>Ohioeh</t>
+  </si>
+  <si>
+    <t>you guys always make me laugh and make me have a smile on my face 💗</t>
+  </si>
+  <si>
+    <t>flora</t>
+  </si>
+  <si>
+    <t>As a Mexican… this hurt my soul to watch. 😂😂😂</t>
+  </si>
+  <si>
+    <t>Levi Austin</t>
+  </si>
+  <si>
+    <t>Vik has the best taste along side Tobi, ain’t no way they didn’t pick s’mores or tacos. Simon has the worst taste by far holy shit</t>
+  </si>
+  <si>
+    <t>Ivan Gutierrez</t>
+  </si>
+  <si>
+    <t>Omg can't believe you guys did this without having your food expert (Behz) there to deliberate</t>
+  </si>
+  <si>
+    <t>Lorenzo Johnson</t>
+  </si>
+  <si>
+    <t>Love to see the controversy and Harry presenting for once 😂 can't wait for the charity match, gonna be the best one yet, first one with Simon and josh 31 ❤</t>
+  </si>
+  <si>
+    <t>Haniya</t>
+  </si>
+  <si>
+    <t>As a Mexican seeing Simon say those tacos are dead hurt me🥲</t>
+  </si>
+  <si>
+    <t>Jhonatan Ventura</t>
+  </si>
+  <si>
+    <t>simon giving off the lanky millionaire sex offender vibes with the way he was sitting like mr burns 😂😂😂</t>
+  </si>
+  <si>
+    <t>aaron bridgman</t>
+  </si>
+  <si>
+    <t>Simon dissing bulgogi and calling it poo had me flashing back to lunch at school and all the kids making fun of my mum's cooking 💀 that hurt man bulgogi is so good</t>
+  </si>
+  <si>
+    <t>roya m</t>
+  </si>
+  <si>
+    <t>They needed Ethan for this video he's the food expert</t>
+  </si>
+  <si>
+    <t>Gaurav Jadeja</t>
+  </si>
+  <si>
+    <t>The fact that nachos made it to the semi final is criminal</t>
+  </si>
+  <si>
+    <t>One of the most heartbreaking things I've ever found out is that the sidemen have never tried real, authentic, mexican food 😅</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>Simon: I season my egg.
+Tobi: Not properly.
+Josh: What do you season yours with? 
+Vick (points at Tobi): Sperm.
+🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>Raadius</t>
+  </si>
+  <si>
+    <t>This is exactly what I needed today. Thank you for the laughs!</t>
+  </si>
+  <si>
+    <t>Mae Rodriguez</t>
+  </si>
+  <si>
+    <t>Finally another sidemen video can't wait for Charity Match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheese Louise </t>
+  </si>
+  <si>
+    <t>It’s very British of them to say the authentic looking Mexican tacos look dead 😂</t>
+  </si>
+  <si>
+    <t>Sacora Pankey</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27,15 +221,35 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -43,24 +257,473 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <right style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="8">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n" s="8">
+        <v>531.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n" s="10">
+        <v>769.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n" s="12">
+        <v>646.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n" s="14">
+        <v>304.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n" s="16">
+        <v>574.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="18">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n" s="18">
+        <v>1156.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n" s="20">
+        <v>126.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n" s="22">
+        <v>2381.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n" s="24">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n" s="26">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="28">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s" s="28">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n" s="28">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n" s="30">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s" s="32">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n" s="32">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="34">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="34">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n" s="34">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="36">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n" s="36">
+        <v>826.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="38">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s" s="38">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n" s="38">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="40">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s" s="40">
+        <v>36</v>
+      </c>
+      <c r="C18" t="n" s="40">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="42">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s" s="42">
+        <v>38</v>
+      </c>
+      <c r="C19" t="n" s="42">
+        <v>181.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="44">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s" s="44">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n" s="44">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="46">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s" s="46">
+        <v>42</v>
+      </c>
+      <c r="C21" t="n" s="46">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="48">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s" s="48">
+        <v>44</v>
+      </c>
+      <c r="C22" t="n" s="48">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="50">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s" s="50">
+        <v>46</v>
+      </c>
+      <c r="C23" t="n" s="50">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="52">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s" s="52">
+        <v>48</v>
+      </c>
+      <c r="C24" t="n" s="52">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="54">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s" s="54">
+        <v>50</v>
+      </c>
+      <c r="C25" t="n" s="54">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="56">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="56">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n" s="56">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="58">
+        <v>53</v>
+      </c>
+      <c r="C27" t="n" s="58">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="60">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s" s="60">
+        <v>55</v>
+      </c>
+      <c r="C28" t="n" s="60">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="62">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s" s="62">
+        <v>57</v>
+      </c>
+      <c r="C29" t="n" s="62">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="64">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s" s="64">
+        <v>59</v>
+      </c>
+      <c r="C30" t="n" s="64">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="66">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s" s="66">
+        <v>61</v>
+      </c>
+      <c r="C31" t="n" s="66">
+        <v>260.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>